--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosm\Desktop\SE160A_MATLAB_Spar_Analysis (2024)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07EAE2B-F6D5-44C2-81A8-B2EADE789FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF32DD10-720D-4709-B99F-5719408BE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15100" yWindow="-12270" windowWidth="19420" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -2028,7 +2028,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:colOff>920750</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>28143</xdr:rowOff>
     </xdr:to>
@@ -2071,8 +2071,8 @@
       <xdr:rowOff>98872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>946151</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3176</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2111,9 +2111,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2151,7 +2151,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2257,7 +2257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2399,7 +2399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2412,27 +2412,27 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="D32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="2.1796875" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="6" width="34.54296875" customWidth="1"/>
-    <col min="7" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
-    <col min="15" max="17" width="1.81640625" customWidth="1"/>
-    <col min="19" max="1026" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="17" width="1.85546875" customWidth="1"/>
+    <col min="19" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" customHeight="1"/>
-    <row r="2" spans="1:16" ht="14.5" customHeight="1">
+    <row r="1" spans="1:16" ht="14.45" customHeight="1"/>
+    <row r="2" spans="1:16" ht="14.45" customHeight="1">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="45"/>
@@ -2449,7 +2449,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="14.5" customHeight="1">
+    <row r="3" spans="1:16" ht="14.45" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.5" customHeight="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.45" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.5" customHeight="1">
+    <row r="5" spans="1:16" ht="14.45" customHeight="1">
       <c r="B5" s="6"/>
       <c r="D5" s="5" t="s">
         <v>78</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B6" s="6"/>
       <c r="D6"/>
       <c r="E6" s="7"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.5" customHeight="1">
+    <row r="8" spans="1:16" ht="14.45" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -2517,14 +2517,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="B9" s="6"/>
       <c r="E9" s="21" t="s">
         <v>114</v>
       </c>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="B10" s="6"/>
       <c r="E10" s="14" t="s">
         <v>3</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
       <c r="B12" s="6"/>
       <c r="E12" s="83" t="s">
         <v>0</v>
@@ -2572,18 +2572,18 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="14.5" customHeight="1">
+    <row r="13" spans="1:16" ht="14.45" customHeight="1">
       <c r="B13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1">
       <c r="B14" s="6"/>
       <c r="E14" s="21" t="s">
         <v>80</v>
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1">
       <c r="B15" s="6"/>
       <c r="E15" s="14" t="s">
         <v>3</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1">
       <c r="B18" s="6"/>
       <c r="E18" s="76" t="s">
         <v>105</v>
@@ -2647,21 +2647,21 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="14.5" customHeight="1">
+    <row r="19" spans="1:16" ht="14.45" customHeight="1">
       <c r="B19" s="6"/>
       <c r="L19" s="67"/>
       <c r="M19" s="67"/>
       <c r="N19" s="67"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="E20" s="21" t="s">
         <v>81</v>
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1">
       <c r="B21" s="6"/>
       <c r="E21" s="14" t="s">
         <v>3</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" ht="14.5" customHeight="1">
+    <row r="23" spans="1:16" ht="14.45" customHeight="1">
       <c r="B23" s="6"/>
       <c r="E23" s="74" t="s">
         <v>8</v>
@@ -2720,7 +2720,7 @@
       <c r="N23" s="67"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="N24" s="67"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="14.5" customHeight="1">
+    <row r="25" spans="1:16" ht="14.45" customHeight="1">
       <c r="B25" s="6"/>
       <c r="E25" s="84" t="s">
         <v>10</v>
@@ -2761,7 +2761,7 @@
       <c r="N25" s="67"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="14.5" customHeight="1">
+    <row r="26" spans="1:16" ht="14.45" customHeight="1">
       <c r="B26" s="6"/>
       <c r="E26" s="23" t="s">
         <v>12</v>
@@ -2780,7 +2780,7 @@
       <c r="N26" s="67"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B27" s="6"/>
       <c r="E27" s="27" t="s">
         <v>14</v>
@@ -2799,7 +2799,7 @@
       <c r="N27" s="67"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" ht="14.5" customHeight="1">
+    <row r="28" spans="1:16" ht="14.45" customHeight="1">
       <c r="B28" s="6"/>
       <c r="E28" s="81" t="s">
         <v>11</v>
@@ -2818,7 +2818,7 @@
       <c r="N28" s="67"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="14.5" customHeight="1">
+    <row r="29" spans="1:16" ht="14.45" customHeight="1">
       <c r="B29" s="6"/>
       <c r="E29" s="23" t="s">
         <v>13</v>
@@ -2837,7 +2837,7 @@
       <c r="N29" s="67"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B30" s="6"/>
       <c r="E30" s="27" t="s">
         <v>15</v>
@@ -2856,21 +2856,21 @@
       <c r="N30" s="67"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" ht="14.5" customHeight="1">
+    <row r="31" spans="1:16" ht="14.45" customHeight="1">
       <c r="B31" s="6"/>
       <c r="L31" s="67"/>
       <c r="M31" s="67"/>
       <c r="N31" s="67"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1">
       <c r="B32" s="6"/>
       <c r="E32" s="21" t="s">
         <v>85</v>
       </c>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="2:16" ht="15" thickBot="1">
+    <row r="33" spans="2:16" ht="15.75" thickBot="1">
       <c r="B33" s="6"/>
       <c r="E33" s="88" t="s">
         <v>3</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="2:16" ht="14.5" customHeight="1">
+    <row r="34" spans="2:16" ht="14.45" customHeight="1">
       <c r="B34" s="6"/>
       <c r="E34" s="68" t="s">
         <v>31</v>
@@ -2905,7 +2905,7 @@
       <c r="N34" s="67"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="35" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B35" s="6"/>
       <c r="E35" s="41" t="s">
         <v>32</v>
@@ -2924,21 +2924,21 @@
       <c r="N35" s="67"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="2:16" ht="14.5" customHeight="1">
+    <row r="36" spans="2:16" ht="14.45" customHeight="1">
       <c r="B36" s="6"/>
       <c r="L36" s="67"/>
       <c r="M36" s="67"/>
       <c r="N36" s="67"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="2:16" ht="15" thickBot="1">
+    <row r="37" spans="2:16" ht="15.75" thickBot="1">
       <c r="B37" s="6"/>
       <c r="E37" s="21" t="s">
         <v>119</v>
       </c>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="2:16" ht="15" thickBot="1">
+    <row r="38" spans="2:16" ht="15.75" thickBot="1">
       <c r="B38" s="6"/>
       <c r="E38" s="14" t="s">
         <v>3</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="2:16" ht="17">
+    <row r="39" spans="2:16" ht="16.5">
       <c r="B39" s="6"/>
       <c r="D39" s="1" t="s">
         <v>0</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="2:16" ht="16.5">
+    <row r="40" spans="2:16" ht="18">
       <c r="B40" s="6"/>
       <c r="D40" s="1" t="s">
         <v>0</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="2:16" ht="16.5">
+    <row r="41" spans="2:16" ht="18">
       <c r="B41" s="6"/>
       <c r="D41" s="1" t="s">
         <v>0</v>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="2:16" ht="16.5">
+    <row r="42" spans="2:16" ht="18">
       <c r="B42" s="6"/>
       <c r="D42" s="1" t="s">
         <v>0</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="2:16" ht="16.5">
+    <row r="43" spans="2:16" ht="18">
       <c r="B43" s="6"/>
       <c r="D43" s="1" t="s">
         <v>0</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="2:16" ht="16.5">
+    <row r="44" spans="2:16" ht="18">
       <c r="B44" s="6"/>
       <c r="D44" s="1" t="s">
         <v>0</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="2:16" ht="17" thickBot="1">
+    <row r="45" spans="2:16" ht="18.75" thickBot="1">
       <c r="B45" s="6"/>
       <c r="D45" s="1" t="s">
         <v>0</v>
@@ -3126,14 +3126,14 @@
       <c r="N46" s="103"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="2:16" ht="15" thickBot="1">
+    <row r="47" spans="2:16" ht="15.75" thickBot="1">
       <c r="B47" s="6"/>
       <c r="E47" s="21" t="s">
         <v>86</v>
       </c>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="2:16" ht="15" thickBot="1">
+    <row r="48" spans="2:16" ht="15.75" thickBot="1">
       <c r="B48" s="6"/>
       <c r="E48" s="34" t="s">
         <v>3</v>
@@ -3171,7 +3171,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="16.5">
+    <row r="50" spans="2:18" ht="18">
       <c r="B50" s="6"/>
       <c r="D50" s="1" t="s">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="16.5">
+    <row r="51" spans="2:18" ht="18">
       <c r="B51" s="6"/>
       <c r="D51" s="1" t="s">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="16.5">
+    <row r="53" spans="2:18" ht="18">
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="16.5">
+    <row r="54" spans="2:18" ht="18">
       <c r="B54" s="6"/>
       <c r="D54" s="1" t="s">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="16.5">
+    <row r="55" spans="2:18" ht="18">
       <c r="B55" s="6"/>
       <c r="E55" s="22" t="s">
         <v>28</v>
@@ -3300,7 +3300,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="16.5">
+    <row r="56" spans="2:18" ht="18">
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="17" thickBot="1">
+    <row r="57" spans="2:18" ht="18.75" thickBot="1">
       <c r="B57" s="6"/>
       <c r="E57" s="12" t="s">
         <v>108</v>
@@ -3400,17 +3400,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" customWidth="1"/>
-    <col min="11" max="11" width="34.81640625" customWidth="1"/>
-    <col min="17" max="17" width="2.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" thickBot="1"/>
-    <row r="3" spans="2:19" ht="15" thickBot="1">
+    <row r="2" spans="2:19" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:19" ht="15.75" thickBot="1">
       <c r="B3" s="104" t="s">
         <v>67</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="S3" s="106"/>
     </row>
-    <row r="4" spans="2:19" ht="38" customHeight="1" thickBot="1">
+    <row r="4" spans="2:19" ht="38.1" customHeight="1" thickBot="1">
       <c r="B4" s="49" t="s">
         <v>57</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="17.5" thickBot="1">
+    <row r="5" spans="2:19" ht="18.75" thickBot="1">
       <c r="B5" s="53" t="s">
         <v>76</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="16.5" thickBot="1">
+    <row r="6" spans="2:19" ht="18.75" thickBot="1">
       <c r="B6" s="51" t="s">
         <v>33</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="17" thickBot="1">
+    <row r="7" spans="2:19" ht="18.75" thickBot="1">
       <c r="B7" s="53" t="s">
         <v>8</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="17" thickBot="1">
+    <row r="8" spans="2:19" ht="18.75" thickBot="1">
       <c r="B8" s="53" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="17.5" thickBot="1">
+    <row r="9" spans="2:19" ht="18.75" thickBot="1">
       <c r="B9" s="51" t="s">
         <v>60</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="17.5" thickBot="1">
+    <row r="10" spans="2:19" ht="18.75" thickBot="1">
       <c r="B10" s="51" t="s">
         <v>62</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="17.5" thickBot="1">
+    <row r="11" spans="2:19" ht="18.75" thickBot="1">
       <c r="B11" s="51" t="s">
         <v>63</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="17.5" thickBot="1">
+    <row r="12" spans="2:19" ht="17.25" thickBot="1">
       <c r="B12" s="51" t="s">
         <v>64</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="17.5" thickBot="1">
+    <row r="13" spans="2:19" ht="18.75" thickBot="1">
       <c r="B13" s="51" t="s">
         <v>65</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="17.5" thickBot="1">
+    <row r="14" spans="2:19" ht="17.25" thickBot="1">
       <c r="B14" s="51" t="s">
         <v>66</v>
       </c>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF32DD10-720D-4709-B99F-5719408BE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0D338-4117-4283-A629-CA36FCA10EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2412,8 +2412,8 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2969,10 +2969,10 @@
         <v>92</v>
       </c>
       <c r="G39" s="29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H39" s="29">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I39" s="11">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>88</v>
       </c>
       <c r="G40" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="85" t="s">
         <v>89</v>
@@ -3013,10 +3013,10 @@
         <v>90</v>
       </c>
       <c r="G41" s="98">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H41" s="98">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I41" s="85" t="s">
         <v>89</v>
@@ -3035,10 +3035,10 @@
         <v>91</v>
       </c>
       <c r="G42" s="98">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H42" s="98">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I42" s="85" t="s">
         <v>89</v>
@@ -3057,10 +3057,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I43" s="85" t="s">
         <v>113</v>
@@ -3079,10 +3079,10 @@
         <v>101</v>
       </c>
       <c r="G44" s="98">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H44" s="98">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I44" s="85" t="s">
         <v>113</v>
@@ -3101,10 +3101,10 @@
         <v>102</v>
       </c>
       <c r="G45" s="30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H45" s="30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>113</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0D338-4117-4283-A629-CA36FCA10EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000EC98D-4BEC-43A9-9D09-50680BBA44B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2969,10 +2969,10 @@
         <v>92</v>
       </c>
       <c r="G39" s="29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H39" s="29">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I39" s="11">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>88</v>
       </c>
       <c r="G40" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I40" s="85" t="s">
         <v>89</v>
@@ -3013,10 +3013,10 @@
         <v>90</v>
       </c>
       <c r="G41" s="98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H41" s="98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I41" s="85" t="s">
         <v>89</v>
@@ -3035,10 +3035,10 @@
         <v>91</v>
       </c>
       <c r="G42" s="98">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H42" s="98">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I42" s="85" t="s">
         <v>89</v>
@@ -3057,10 +3057,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H43" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I43" s="85" t="s">
         <v>113</v>
@@ -3079,10 +3079,10 @@
         <v>101</v>
       </c>
       <c r="G44" s="98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H44" s="98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I44" s="85" t="s">
         <v>113</v>
@@ -3101,10 +3101,10 @@
         <v>102</v>
       </c>
       <c r="G45" s="30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H45" s="30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>113</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000EC98D-4BEC-43A9-9D09-50680BBA44B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5BEC1-773A-441D-B6A3-2D606CEAB64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2412,7 +2412,7 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -2969,10 +2969,10 @@
         <v>92</v>
       </c>
       <c r="G39" s="29">
-        <v>0</v>
+        <v>0.2555</v>
       </c>
       <c r="H39" s="29">
-        <v>0</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="I39" s="11">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>88</v>
       </c>
       <c r="G40" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="85" t="s">
         <v>89</v>
@@ -3013,10 +3013,10 @@
         <v>90</v>
       </c>
       <c r="G41" s="98">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H41" s="98">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I41" s="85" t="s">
         <v>89</v>
@@ -3035,10 +3035,10 @@
         <v>91</v>
       </c>
       <c r="G42" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" s="98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I42" s="85" t="s">
         <v>89</v>
@@ -3057,10 +3057,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="98">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H43" s="98">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I43" s="85" t="s">
         <v>113</v>
@@ -3079,10 +3079,10 @@
         <v>101</v>
       </c>
       <c r="G44" s="98">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="98">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="85" t="s">
         <v>113</v>
@@ -3101,10 +3101,10 @@
         <v>102</v>
       </c>
       <c r="G45" s="30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H45" s="30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>113</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5BEC1-773A-441D-B6A3-2D606CEAB64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E17F8-1333-4E23-8E97-3C67144E079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2969,10 +2969,10 @@
         <v>92</v>
       </c>
       <c r="G39" s="29">
-        <v>0.2555</v>
+        <v>0</v>
       </c>
       <c r="H39" s="29">
-        <v>0.75549999999999995</v>
+        <v>0</v>
       </c>
       <c r="I39" s="11">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>88</v>
       </c>
       <c r="G40" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I40" s="85" t="s">
         <v>89</v>
@@ -3013,10 +3013,10 @@
         <v>90</v>
       </c>
       <c r="G41" s="98">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H41" s="98">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I41" s="85" t="s">
         <v>89</v>
@@ -3035,10 +3035,10 @@
         <v>91</v>
       </c>
       <c r="G42" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I42" s="85" t="s">
         <v>89</v>
@@ -3057,10 +3057,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="98">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H43" s="98">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I43" s="85" t="s">
         <v>113</v>
@@ -3079,10 +3079,10 @@
         <v>101</v>
       </c>
       <c r="G44" s="98">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="98">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="85" t="s">
         <v>113</v>
@@ -3101,10 +3101,10 @@
         <v>102</v>
       </c>
       <c r="G45" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I45" s="86" t="s">
         <v>113</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E17F8-1333-4E23-8E97-3C67144E079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DADFA0-5D20-4209-A268-82688DAA5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -2412,8 +2412,8 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2608,7 +2608,7 @@
         <v>82</v>
       </c>
       <c r="G16" s="29">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>18</v>
@@ -2624,7 +2624,7 @@
         <v>106</v>
       </c>
       <c r="G17" s="70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="71" t="s">
         <v>18</v>
@@ -2640,7 +2640,7 @@
         <v>107</v>
       </c>
       <c r="G18" s="78">
-        <v>0.1</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="H18" s="79" t="s">
         <v>18</v>
@@ -3161,7 +3161,7 @@
         <v>79</v>
       </c>
       <c r="G49" s="99">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H49" s="94">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>46</v>
       </c>
       <c r="G50" s="98">
-        <v>1.25</v>
+        <v>4.5300000000000002E-3</v>
       </c>
       <c r="H50" s="44" t="s">
         <v>29</v>
@@ -3205,7 +3205,7 @@
         <v>47</v>
       </c>
       <c r="G51" s="98">
-        <v>2.0830000000000002</v>
+        <v>3.0200000000000001E-3</v>
       </c>
       <c r="H51" s="44" t="s">
         <v>29</v>
@@ -3227,7 +3227,7 @@
         <v>48</v>
       </c>
       <c r="G52" s="98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52" s="44">
         <v>1</v>
@@ -3249,7 +3249,7 @@
         <v>43</v>
       </c>
       <c r="G53" s="98">
-        <v>30</v>
+        <v>0.38901999999999998</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>29</v>
@@ -3271,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="G54" s="98">
-        <v>-11</v>
+        <v>-0.10895000000000001</v>
       </c>
       <c r="H54" s="44" t="s">
         <v>29</v>
@@ -3290,7 +3290,7 @@
         <v>45</v>
       </c>
       <c r="G55" s="98">
-        <v>-3.16</v>
+        <v>-2.724E-2</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>29</v>
@@ -3312,7 +3312,7 @@
         <v>109</v>
       </c>
       <c r="G56" s="98">
-        <v>50</v>
+        <v>0.24906</v>
       </c>
       <c r="H56" s="44" t="s">
         <v>30</v>
@@ -3331,7 +3331,7 @@
         <v>110</v>
       </c>
       <c r="G57" s="30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>30</v>
